--- a/files/商户帐号导入模板.xlsx
+++ b/files/商户帐号导入模板.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joey/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="6860" windowWidth="26680" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="1245" yWindow="6855" windowWidth="26685" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="2" r:id="rId1"/>
@@ -60,9 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拥有仪表ID(多个电表，中间以逗号分隔，这ID就是表上序列号)</t>
-  </si>
-  <si>
     <t>报警阈值(元)</t>
   </si>
   <si>
@@ -224,6 +216,10 @@
   </si>
   <si>
     <t>商户说明</t>
+  </si>
+  <si>
+    <t>拥有仪表(多个仪表，中间以逗号分隔，可用仪表ID以及名称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -306,8 +302,36 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -641,26 +665,26 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -669,25 +693,25 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -752,16 +776,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -779,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -799,10 +823,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -811,7 +835,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>-10</v>
@@ -820,18 +844,18 @@
         <v>100.98775999999999</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3">
         <v>123456</v>
@@ -840,7 +864,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -849,21 +873,21 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>13905190001</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>123456</v>
@@ -872,7 +896,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -884,7 +908,7 @@
         <v>13905190002</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">

--- a/files/商户帐号导入模板.xlsx
+++ b/files/商户帐号导入模板.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joey/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="6855" windowWidth="26685" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="8380" windowWidth="31000" windowHeight="9660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="2" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>商户面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,19 +44,6 @@
   <si>
     <t>13905190002@139.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名称(建议使用商户手机号，商户登陆使用的账号，不支持汉字，只能是数字与字母)</t>
-  </si>
-  <si>
-    <t>账户名称(建议使用商户手机号，商户登陆使用的账号，不支持汉字，只能是数字与字母)</t>
-    <rPh sb="36" eb="37">
-      <t>gng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始密码(默认手机后六位)</t>
   </si>
   <si>
     <t>初始密码(默认手机后六位)</t>
@@ -152,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001013001542，000000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13905190001@139.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000000001，000000000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商户名称</t>
   </si>
   <si>
@@ -218,7 +205,113 @@
     <t>商户说明</t>
   </si>
   <si>
-    <t>拥有仪表(多个仪表，中间以逗号分隔，可用仪表ID以及名称)</t>
+    <t>初始密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有仪表(多个仪表，中间以逗号分隔，使用仪表ID，如果是分摊表请加百分比符号及比例)</t>
+    <rPh sb="18" eb="19">
+      <t>wget</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wyge</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>vkjs</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>j</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wvrc</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yge</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>lk</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dj</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>wv</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>xx</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>twkg</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ey</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xxw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属公寓（或者建筑名）</t>
+    <rPh sb="0" eb="1">
+      <t>wwnt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wcp</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>akft</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>vfta</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000001，000000000001%70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001013001542，000000000001%30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大楼A</t>
+    <rPh sb="0" eb="1">
+      <t>ddso</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称(建议使用商管系统中的编号，商户登陆使用的账号，不支持汉字，只能是数字与字母)</t>
+    <rPh sb="9" eb="10">
+      <t>um</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tp</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>txxy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>k</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>r</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xyk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称(建议使用商管系统中的编号，商户登陆使用的账号，不支持汉字，只能是数字与字母)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,15 +352,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,13 +374,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -662,105 +745,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="33.375" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -770,63 +874,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -835,27 +943,30 @@
         <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
         <v>-10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>100.98775999999999</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3">
         <v>123456</v>
@@ -864,30 +975,33 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
         <v>13905190001</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
       </c>
       <c r="C4">
         <v>123456</v>
@@ -896,30 +1010,37 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>13905190002</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H5" s="1"/>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F5" s="4"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="13688888888@139.com"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId1" display="13688888888@139.com"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/files/商户帐号导入模板.xlsx
+++ b/files/商户帐号导入模板.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joey/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teishinshiro/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="8380" windowWidth="31000" windowHeight="9660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="2980" windowWidth="28800" windowHeight="9660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="2" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>商户面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gugecareColdwaterMeter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13905190001@139.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gugecconlyelectricmeter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guge13777494316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000049164818</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,14 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000000001，000000000001%70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001013001542，000000000001%30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大楼A</t>
     <rPh sb="0" eb="1">
       <t>ddso</t>
@@ -312,6 +289,263 @@
   </si>
   <si>
     <t>账户名称(建议使用商管系统中的编号，商户登陆使用的账号，不支持汉字，只能是数字与字母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001013001542，000000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000001，000000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊功能：</t>
+    <rPh sb="0" eb="1">
+      <t>fen tan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、报警阀值代表用户即将达到欠费相应额度后的系统催缴触发值。</t>
+    <rPh sb="2" eb="3">
+      <t>bao jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji jiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>da dao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qian fei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiang y</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>e du</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>d</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>cui jiao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chu fa</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、一个账号内可绑定多个不同类型仪表，modbus协议会遇到仪表号码相同情况，系统支持填入仪表名称代替仪表id 。</t>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bagn ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lei x</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi biao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xie yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu dao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yi biao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>hao ma</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>xiang tong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>qing k</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>tian ru</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>yi biao</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ming c</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>dai ti</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>yi biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、关联仪表绑定2个商户以上系统自动视为该仪表为分摊仪表并平均分配分摊百分比。</t>
+    <rPh sb="2" eb="3">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bang ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang hu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi shagn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi wei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yi biao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fen t</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yi biao</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ping jun</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fen pei</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fen tan</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>bai fen bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、账号可以全数字或者数字加字母组合，账户账号系统内为唯一存在每个只可使用一次。</t>
+    <rPh sb="8" eb="9">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhagn hao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wei yi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>mei ge</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhi ke</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>yi ci</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,12 +608,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -768,22 +1014,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -798,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -874,18 +1120,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
@@ -899,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -911,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -933,8 +1179,8 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2" s="5">
+        <v>13300000001</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -943,10 +1189,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>-10</v>
@@ -965,8 +1211,8 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" s="5">
+        <v>13300000002</v>
       </c>
       <c r="C3">
         <v>123456</v>
@@ -975,10 +1221,10 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -987,21 +1233,21 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>13905190001</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="5">
+        <v>13300000003</v>
       </c>
       <c r="C4">
         <v>123456</v>
@@ -1010,10 +1256,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -1025,7 +1271,7 @@
         <v>13905190002</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1035,7 +1281,56 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F6" s="4"/>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="13688888888@139.com"/>

--- a/files/商户帐号导入模板.xlsx
+++ b/files/商户帐号导入模板.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teishinshiro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joey/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2980" windowWidth="28800" windowHeight="9660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="8380" windowWidth="31000" windowHeight="9660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>商户面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +143,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gugecareColdwaterMeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>13905190001@139.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +184,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gugecconlyelectricmeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guge13777494316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>000049164818</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +274,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>000000000001，000000000001%70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001013001542，000000000001%30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>大楼A</t>
     <rPh sb="0" eb="1">
       <t>ddso</t>
@@ -289,263 +312,6 @@
   </si>
   <si>
     <t>账户名称(建议使用商管系统中的编号，商户登陆使用的账号，不支持汉字，只能是数字与字母)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001013001542，000000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000000001，000000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
-    <rPh sb="0" eb="1">
-      <t>bei zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分摊功能：</t>
-    <rPh sb="0" eb="1">
-      <t>fen tan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong neng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、报警阀值代表用户即将达到欠费相应额度后的系统催缴触发值。</t>
-    <rPh sb="2" eb="3">
-      <t>bao jing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fa</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dai b</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji jiang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>da dao</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>qian fei</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xiang y</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>e du</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>d</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xi t</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>cui jiao</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>chu fa</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、一个账号内可绑定多个不同类型仪表，modbus协议会遇到仪表号码相同情况，系统支持填入仪表名称代替仪表id 。</t>
-    <rPh sb="2" eb="3">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang hao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>nei</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bagn ding</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>duo</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bu tong</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>lei x</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yi biao</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>xie yi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu dao</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>yi biao</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>hao ma</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>xiang tong</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>qing k</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>xi t</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>zhi chi</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>tian ru</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>yi biao</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ming c</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>dai ti</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>yi biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、关联仪表绑定2个商户以上系统自动视为该仪表为分摊仪表并平均分配分摊百分比。</t>
-    <rPh sb="2" eb="3">
-      <t>guan lian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yi biao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bang ding</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>g</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shang hu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yi shagn</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xi t</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zi d</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>shi wei</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>yi biao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>fen t</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>yi biao</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ping jun</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>fen pei</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>fen tan</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>bai fen bi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、账号可以全数字或者数字加字母组合，账户账号系统内为唯一存在每个只可使用一次。</t>
-    <rPh sb="8" eb="9">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zhagn hao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>xi t</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>nei</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wei yi</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>cun zai</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>mei ge</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>zhi ke</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>yi ci</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,24 +374,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1014,22 +768,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -1044,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -1120,18 +874,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
@@ -1145,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1157,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1179,8 +933,8 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
-        <v>13300000001</v>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -1189,10 +943,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>-10</v>
@@ -1211,8 +965,8 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5">
-        <v>13300000002</v>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3">
         <v>123456</v>
@@ -1221,10 +975,10 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -1233,21 +987,21 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>13905190001</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5">
-        <v>13300000003</v>
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
         <v>123456</v>
@@ -1256,10 +1010,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -1271,7 +1025,7 @@
         <v>13905190002</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1281,56 +1035,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="13688888888@139.com"/>
